--- a/data/31.4/resumo.xlsx
+++ b/data/31.4/resumo.xlsx
@@ -501,47 +501,47 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Mic entre 3.5 e 4.8</t>
+          <t>Mic entre 3.58 e 4.5</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>UHM acima de 1.11</t>
+          <t>UHM abaixo de 1.11</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>UHM_34.0</t>
+          <t>UHM_34</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>UHM_35.0</t>
+          <t>UHM_35</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>UHM_36.0</t>
+          <t>UHM_36</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>UHM_37.0</t>
+          <t>UHM_37</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>UHM_38.0</t>
+          <t>UHM_38</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>UHM_39.0</t>
+          <t>UHM_39</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>UHM_40.0</t>
+          <t>UHM_40</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -556,11 +556,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>10529</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>10529</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>26862</v>
+        <v>26666.5</v>
       </c>
       <c r="C2" t="n">
         <v>3.8</v>
@@ -581,7 +583,7 @@
         <v>1.22</v>
       </c>
       <c r="I2" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="J2" t="n">
         <v>27</v>
@@ -595,50 +597,56 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>92.6%</t>
+          <t>88.1%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>92.6%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="T2" t="n">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="U2" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>dfad</t>
+        </is>
+      </c>
       <c r="X2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>10628</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10628</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>25904</v>
+        <v>25713.5</v>
       </c>
       <c r="C3" t="n">
         <v>3.7</v>
@@ -669,54 +677,60 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>84.6%</t>
+          <t>73.3%</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>85.3%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S3" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="T3" t="n">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>fadfda</t>
+        </is>
+      </c>
       <c r="X3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>10638</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10638</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>26256</v>
+        <v>26059.5</v>
       </c>
       <c r="C4" t="n">
         <v>3.8</v>
@@ -755,46 +769,48 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>98.5%</t>
+          <t>89.6%</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>79.4%</t>
+          <t>17.8%</t>
         </is>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="T4" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="U4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>10639</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10639</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>26014</v>
+        <v>25823.5</v>
       </c>
       <c r="C5" t="n">
         <v>4.1</v>
@@ -829,38 +845,38 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>88.2%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>14</v>
+      </c>
+      <c r="S5" t="n">
         <v>12</v>
       </c>
-      <c r="R5" t="n">
-        <v>12</v>
-      </c>
-      <c r="S5" t="n">
-        <v>48</v>
-      </c>
       <c r="T5" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="U5" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="b">
@@ -868,11 +884,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>10646</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10646</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>26510</v>
+        <v>26305.5</v>
       </c>
       <c r="C6" t="n">
         <v>3.8</v>
@@ -907,38 +925,38 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>82.4%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>58.1%</t>
+          <t>34.1%</t>
         </is>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="R6" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="S6" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="b">
@@ -946,11 +964,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>10669</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10669</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>20529.5</v>
+        <v>20336</v>
       </c>
       <c r="C7" t="n">
         <v>3.8</v>
@@ -985,50 +1005,52 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>94.2%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>75.2%</t>
+          <t>10.6%</t>
         </is>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S7" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="T7" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>10710</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10710</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>26766</v>
+        <v>26576.5</v>
       </c>
       <c r="C8" t="n">
         <v>3.8</v>
@@ -1063,38 +1085,38 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>77.2%</t>
+          <t>15.6%</t>
         </is>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="S8" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="T8" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="U8" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="b">
@@ -1102,11 +1124,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>10711</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10711</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>26756</v>
+        <v>26557.5</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
@@ -1137,11 +1161,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1150,29 +1174,29 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>88.2%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S9" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="T9" t="n">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="U9" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="b">
@@ -1180,11 +1204,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>10734</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10734</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>26487</v>
+        <v>26290.5</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1219,7 +1245,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>4.38</v>
+        <v>4.39</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1228,29 +1254,29 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="U10" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="b">
@@ -1258,11 +1284,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>10735</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10735</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>26667</v>
+        <v>26475.5</v>
       </c>
       <c r="C11" t="n">
         <v>4.2</v>
@@ -1293,39 +1321,39 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>99.3%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>69.1%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" t="n">
         <v>31</v>
       </c>
-      <c r="R11" t="n">
-        <v>17</v>
-      </c>
       <c r="S11" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="T11" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1336,11 +1364,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10736</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10736</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>26242</v>
+        <v>26045.5</v>
       </c>
       <c r="C12" t="n">
         <v>4.2</v>
@@ -1375,7 +1405,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1384,26 +1414,26 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>43.4%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="R12" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="S12" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="T12" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1414,11 +1444,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>10739</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10739</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>26740</v>
+        <v>26539.5</v>
       </c>
       <c r="C13" t="n">
         <v>4.2</v>
@@ -1457,34 +1489,34 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>99.3%</t>
+          <t>97.8%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>23.7%</t>
         </is>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R13" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="S13" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="T13" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="U13" t="n">
+        <v>13</v>
+      </c>
+      <c r="V13" t="n">
         <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="b">
@@ -1492,11 +1524,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>10744</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10744</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>26699</v>
+        <v>26506.5</v>
       </c>
       <c r="C14" t="n">
         <v>3.7</v>
@@ -1531,7 +1565,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1540,29 +1574,29 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>14.1%</t>
         </is>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="R14" t="n">
         <v>21</v>
       </c>
       <c r="S14" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="T14" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="U14" t="n">
+        <v>15</v>
+      </c>
+      <c r="V14" t="n">
         <v>1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="b">
@@ -1570,11 +1604,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>10747</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10747</t>
+        </is>
       </c>
       <c r="B15" t="n">
-        <v>26665</v>
+        <v>26476.5</v>
       </c>
       <c r="C15" t="n">
         <v>3.8</v>
@@ -1609,38 +1645,38 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>91.1%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>93.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S15" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="T15" t="n">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="U15" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="b">
@@ -1648,11 +1684,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>10750</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10750</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>26784</v>
+        <v>26585.5</v>
       </c>
       <c r="C16" t="n">
         <v>3.7</v>
@@ -1691,31 +1729,31 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>75.7%</t>
+          <t>14.8%</t>
         </is>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1726,11 +1764,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>10755</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10755</t>
+        </is>
       </c>
       <c r="B17" t="n">
-        <v>26645</v>
+        <v>26448.5</v>
       </c>
       <c r="C17" t="n">
         <v>3.7</v>
@@ -1765,35 +1805,35 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>95.6%</t>
+          <t>78.5%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>89.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S17" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="T17" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1804,11 +1844,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>10768</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10768</t>
+        </is>
       </c>
       <c r="B18" t="n">
-        <v>26028</v>
+        <v>25839.5</v>
       </c>
       <c r="C18" t="n">
         <v>3.9</v>
@@ -1839,7 +1881,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1852,7 +1894,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>96.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -1862,19 +1904,19 @@
         <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="T18" t="n">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="b">
@@ -1882,11 +1924,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>10769</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10769</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>26123</v>
+        <v>25921.5</v>
       </c>
       <c r="C19" t="n">
         <v>3.8</v>
@@ -1898,7 +1942,7 @@
         <v>4.1</v>
       </c>
       <c r="F19" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="G19" t="n">
         <v>1.08</v>
@@ -1921,7 +1965,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1930,26 +1974,26 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>82.4%</t>
+          <t>12.6%</t>
         </is>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="R19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S19" t="n">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -1960,11 +2004,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>10774</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10774</t>
+        </is>
       </c>
       <c r="B20" t="n">
-        <v>26071</v>
+        <v>25871.5</v>
       </c>
       <c r="C20" t="n">
         <v>3.8</v>
@@ -1999,38 +2045,38 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>69.9%</t>
+          <t>18.5%</t>
         </is>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R20" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S20" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="U20" t="n">
+        <v>7</v>
+      </c>
+      <c r="V20" t="n">
         <v>1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="b">
@@ -2038,11 +2084,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>10777</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10777</t>
+        </is>
       </c>
       <c r="B21" t="n">
-        <v>26308</v>
+        <v>26125.5</v>
       </c>
       <c r="C21" t="n">
         <v>3.9</v>
@@ -2073,39 +2121,39 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>68.4%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S21" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2116,11 +2164,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>10780</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10780</t>
+        </is>
       </c>
       <c r="B22" t="n">
-        <v>26349</v>
+        <v>26154.5</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
@@ -2159,28 +2209,28 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>99.3%</t>
+          <t>97.8%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>40.4%</t>
+          <t>45.9%</t>
         </is>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="R22" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2194,11 +2244,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>10785</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10785</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>26392</v>
+        <v>26201.5</v>
       </c>
       <c r="C23" t="n">
         <v>3.8</v>
@@ -2233,35 +2285,35 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>99.3%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>45.2%</t>
         </is>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="R23" t="n">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="S23" t="n">
+        <v>27</v>
+      </c>
+      <c r="T23" t="n">
         <v>21</v>
       </c>
-      <c r="T23" t="n">
-        <v>2</v>
-      </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2272,11 +2324,13 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>10786</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
       </c>
       <c r="B24" t="n">
-        <v>26793</v>
+        <v>26596.5</v>
       </c>
       <c r="C24" t="n">
         <v>3.8</v>
@@ -2311,38 +2365,38 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>96.3%</t>
+          <t>94.8%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>66.9%</t>
+          <t>26.7%</t>
         </is>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="R24" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="S24" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T24" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="U24" t="n">
+        <v>6</v>
+      </c>
+      <c r="V24" t="n">
         <v>2</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="b">
@@ -2350,11 +2404,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>10788</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10788</t>
+        </is>
       </c>
       <c r="B25" t="n">
-        <v>26783</v>
+        <v>26590.5</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
@@ -2393,34 +2449,34 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>99.3%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>92.6%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>10</v>
+      </c>
+      <c r="S25" t="n">
+        <v>17</v>
+      </c>
+      <c r="T25" t="n">
+        <v>78</v>
+      </c>
+      <c r="U25" t="n">
+        <v>27</v>
+      </c>
+      <c r="V25" t="n">
         <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>14</v>
-      </c>
-      <c r="S25" t="n">
-        <v>67</v>
-      </c>
-      <c r="T25" t="n">
-        <v>35</v>
-      </c>
-      <c r="U25" t="n">
-        <v>7</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="b">
@@ -2428,11 +2484,13 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>10797</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10797</t>
+        </is>
       </c>
       <c r="B26" t="n">
-        <v>26759</v>
+        <v>26558.5</v>
       </c>
       <c r="C26" t="n">
         <v>3.8</v>
@@ -2463,7 +2521,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -2471,12 +2529,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>97.8%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2486,19 +2544,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="T26" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="U26" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="b">
@@ -2506,11 +2564,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>10803</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10803</t>
+        </is>
       </c>
       <c r="B27" t="n">
-        <v>26552</v>
+        <v>26360.5</v>
       </c>
       <c r="C27" t="n">
         <v>3.7</v>
@@ -2545,38 +2605,38 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.6%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>92.6%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S27" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="T27" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="U27" t="n">
+        <v>20</v>
+      </c>
+      <c r="V27" t="n">
         <v>1</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="b">
@@ -2584,11 +2644,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>10811</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10811</t>
+        </is>
       </c>
       <c r="B28" t="n">
-        <v>26242</v>
+        <v>26053.5</v>
       </c>
       <c r="C28" t="n">
         <v>3.7</v>
@@ -2619,39 +2681,39 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>99.3%</t>
+          <t>94.1%</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>91.9%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="T28" t="n">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2662,11 +2724,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>10816</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10816</t>
+        </is>
       </c>
       <c r="B29" t="n">
-        <v>26768</v>
+        <v>26568.5</v>
       </c>
       <c r="C29" t="n">
         <v>3.9</v>
@@ -2710,26 +2774,26 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>82.4%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
+        <v>22</v>
+      </c>
+      <c r="S29" t="n">
+        <v>22</v>
+      </c>
+      <c r="T29" t="n">
+        <v>77</v>
+      </c>
+      <c r="U29" t="n">
         <v>12</v>
-      </c>
-      <c r="S29" t="n">
-        <v>68</v>
-      </c>
-      <c r="T29" t="n">
-        <v>21</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2740,11 +2804,13 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>10858</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10858</t>
+        </is>
       </c>
       <c r="B30" t="n">
-        <v>26582</v>
+        <v>26388.5</v>
       </c>
       <c r="C30" t="n">
         <v>3.8</v>
@@ -2775,39 +2841,39 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>88.9%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>83.1%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="S30" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2818,11 +2884,13 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>10863</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10863</t>
+        </is>
       </c>
       <c r="B31" t="n">
-        <v>26135</v>
+        <v>25944.5</v>
       </c>
       <c r="C31" t="n">
         <v>3.8</v>
@@ -2853,7 +2921,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -2861,28 +2929,28 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>92.6%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>54.4%</t>
+          <t>28.1%</t>
         </is>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S31" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -2896,11 +2964,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>10864</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10864</t>
+        </is>
       </c>
       <c r="B32" t="n">
-        <v>26378</v>
+        <v>26180.5</v>
       </c>
       <c r="C32" t="n">
         <v>3.7</v>
@@ -2935,32 +3005,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>94.1%</t>
+          <t>93.3%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>42.6%</t>
+          <t>37.8%</t>
         </is>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="R32" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="S32" t="n">
+        <v>32</v>
+      </c>
+      <c r="T32" t="n">
         <v>26</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -2974,11 +3044,13 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>10865</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10865</t>
+        </is>
       </c>
       <c r="B33" t="n">
-        <v>26246</v>
+        <v>26068.5</v>
       </c>
       <c r="C33" t="n">
         <v>3.7</v>
@@ -3009,11 +3081,11 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -3022,26 +3094,26 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>52.2%</t>
+          <t>35.6%</t>
         </is>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="S33" t="n">
+        <v>39</v>
+      </c>
+      <c r="T33" t="n">
         <v>30</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>1</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3052,11 +3124,13 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>10867</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10867</t>
+        </is>
       </c>
       <c r="B34" t="n">
-        <v>26077</v>
+        <v>25885.5</v>
       </c>
       <c r="C34" t="n">
         <v>3.8</v>
@@ -3091,7 +3165,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -3100,23 +3174,23 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>49.3%</t>
+          <t>32.6%</t>
         </is>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="R34" t="n">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="S34" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3130,11 +3204,13 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>10868</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10868</t>
+        </is>
       </c>
       <c r="B35" t="n">
-        <v>26419</v>
+        <v>26224.5</v>
       </c>
       <c r="C35" t="n">
         <v>3.8</v>
@@ -3165,11 +3241,11 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -3178,23 +3254,23 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="R35" t="n">
+        <v>54</v>
+      </c>
+      <c r="S35" t="n">
         <v>38</v>
       </c>
-      <c r="S35" t="n">
-        <v>28</v>
-      </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3208,11 +3284,13 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>10870</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10870</t>
+        </is>
       </c>
       <c r="B36" t="n">
-        <v>26349</v>
+        <v>26154.5</v>
       </c>
       <c r="C36" t="n">
         <v>3.8</v>
@@ -3243,11 +3321,11 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -3256,23 +3334,23 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>18.4%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="R36" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S36" t="n">
+        <v>20</v>
+      </c>
+      <c r="T36" t="n">
         <v>5</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3286,14 +3364,16 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>10871</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10871</t>
+        </is>
       </c>
       <c r="B37" t="n">
-        <v>26513</v>
+        <v>26313.5</v>
       </c>
       <c r="C37" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D37" t="n">
         <v>3.5</v>
@@ -3325,32 +3405,32 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27.2%</t>
+          <t>54.1%</t>
         </is>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="R37" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="S37" t="n">
+        <v>31</v>
+      </c>
+      <c r="T37" t="n">
         <v>5</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3364,11 +3444,13 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>10872</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10872</t>
+        </is>
       </c>
       <c r="B38" t="n">
-        <v>26456</v>
+        <v>26266.5</v>
       </c>
       <c r="C38" t="n">
         <v>3.8</v>
@@ -3412,23 +3494,23 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>83.1%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S38" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3442,11 +3524,13 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>10874</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10874</t>
+        </is>
       </c>
       <c r="B39" t="n">
-        <v>26464</v>
+        <v>26265.5</v>
       </c>
       <c r="C39" t="n">
         <v>3.7</v>
@@ -3455,7 +3539,7 @@
         <v>3.6</v>
       </c>
       <c r="E39" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="F39" t="n">
         <v>1.14</v>
@@ -3490,26 +3574,26 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>8.1%</t>
         </is>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="S39" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="T39" t="n">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3520,11 +3604,13 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>10876</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10876</t>
+        </is>
       </c>
       <c r="B40" t="n">
-        <v>26466</v>
+        <v>26273.5</v>
       </c>
       <c r="C40" t="n">
         <v>3.7</v>
@@ -3555,7 +3641,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -3568,29 +3654,29 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>89.7%</t>
+          <t>8.1%</t>
         </is>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S40" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="T40" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="U40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="b">
@@ -3598,11 +3684,13 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>10877</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10877</t>
+        </is>
       </c>
       <c r="B41" t="n">
-        <v>26774</v>
+        <v>26578.5</v>
       </c>
       <c r="C41" t="n">
         <v>3.9</v>
@@ -3646,7 +3734,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>99.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3656,19 +3744,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="T41" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="U41" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="b">
@@ -3676,11 +3764,13 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>10879</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10879</t>
+        </is>
       </c>
       <c r="B42" t="n">
-        <v>26951</v>
+        <v>26749.5</v>
       </c>
       <c r="C42" t="n">
         <v>3.8</v>
@@ -3724,29 +3814,29 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>94.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S42" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="T42" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="U42" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="b">
@@ -3754,11 +3844,13 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>10881</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10881</t>
+        </is>
       </c>
       <c r="B43" t="n">
-        <v>26557</v>
+        <v>26358.5</v>
       </c>
       <c r="C43" t="n">
         <v>3.8</v>
@@ -3793,7 +3885,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3802,7 +3894,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>99.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3812,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="T43" t="n">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="U43" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="b">
@@ -3832,11 +3924,13 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>10882</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>10882</t>
+        </is>
       </c>
       <c r="B44" t="n">
-        <v>27032</v>
+        <v>26832.5</v>
       </c>
       <c r="C44" t="n">
         <v>3.7</v>
@@ -3871,7 +3965,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3880,29 +3974,29 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>63.2%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="S44" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="T44" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="U44" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="b">
@@ -3910,11 +4004,13 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>10883</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10883</t>
+        </is>
       </c>
       <c r="B45" t="n">
-        <v>27026</v>
+        <v>26828.5</v>
       </c>
       <c r="C45" t="n">
         <v>3.7</v>
@@ -3945,11 +4041,11 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3958,26 +4054,26 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>98.5%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>2</v>
       </c>
       <c r="S45" t="n">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="T45" t="n">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -3988,11 +4084,13 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>10886</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>10886</t>
+        </is>
       </c>
       <c r="B46" t="n">
-        <v>26275</v>
+        <v>26083.5</v>
       </c>
       <c r="C46" t="n">
         <v>3.8</v>
@@ -4023,11 +4121,11 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -4036,26 +4134,26 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>76.5%</t>
+          <t>14.8%</t>
         </is>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
+        <v>29</v>
+      </c>
+      <c r="S46" t="n">
         <v>39</v>
       </c>
-      <c r="S46" t="n">
+      <c r="T46" t="n">
         <v>62</v>
       </c>
-      <c r="T46" t="n">
-        <v>1</v>
-      </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4066,11 +4164,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>10895</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10895</t>
+        </is>
       </c>
       <c r="B47" t="n">
-        <v>26562</v>
+        <v>26364.5</v>
       </c>
       <c r="C47" t="n">
         <v>3.8</v>
@@ -4101,42 +4201,42 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>4.21</v>
+        <v>4.22</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>34.1%</t>
         </is>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="R47" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="S47" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T47" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="b">
@@ -4144,11 +4244,13 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>10896</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>10896</t>
+        </is>
       </c>
       <c r="B48" t="n">
-        <v>26232</v>
+        <v>26041.5</v>
       </c>
       <c r="C48" t="n">
         <v>3.8</v>
@@ -4183,35 +4285,35 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>4.29</v>
+        <v>4.3</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>98.5%</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>22.2%</t>
         </is>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S48" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="T48" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4222,11 +4324,13 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>10897</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>10897</t>
+        </is>
       </c>
       <c r="B49" t="n">
-        <v>26648</v>
+        <v>26457.5</v>
       </c>
       <c r="C49" t="n">
         <v>3.8</v>
@@ -4261,7 +4365,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -4270,23 +4374,23 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="R49" t="n">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="S49" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -4300,11 +4404,13 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>10901</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10901</t>
+        </is>
       </c>
       <c r="B50" t="n">
-        <v>26159</v>
+        <v>25951.5</v>
       </c>
       <c r="C50" t="n">
         <v>3.7</v>
@@ -4339,35 +4445,35 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>94.9%</t>
+          <t>85.9%</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="R50" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="S50" t="n">
+        <v>12</v>
+      </c>
+      <c r="T50" t="n">
+        <v>31</v>
+      </c>
+      <c r="U50" t="n">
         <v>25</v>
-      </c>
-      <c r="T50" t="n">
-        <v>24</v>
-      </c>
-      <c r="U50" t="n">
-        <v>7</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4378,11 +4484,13 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>10904</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10904</t>
+        </is>
       </c>
       <c r="B51" t="n">
-        <v>26579</v>
+        <v>26386.5</v>
       </c>
       <c r="C51" t="n">
         <v>3.9</v>
@@ -4417,7 +4525,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4426,26 +4534,26 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>63.2%</t>
+          <t>28.9%</t>
         </is>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="R51" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="S51" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="T51" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -4456,11 +4564,13 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>10907</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>10907</t>
+        </is>
       </c>
       <c r="B52" t="n">
-        <v>26619</v>
+        <v>26425.5</v>
       </c>
       <c r="C52" t="n">
         <v>3.8</v>
@@ -4504,29 +4614,29 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>86.8%</t>
+          <t>8.1%</t>
         </is>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S52" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="T52" t="n">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="b">
@@ -4534,11 +4644,13 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>10908</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10908</t>
+        </is>
       </c>
       <c r="B53" t="n">
-        <v>24496</v>
+        <v>24290.5</v>
       </c>
       <c r="C53" t="n">
         <v>3.6</v>
@@ -4577,31 +4689,31 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>83.1%</t>
+          <t>63.6%</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>26.4%</t>
         </is>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="R53" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="S53" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T53" t="n">
+        <v>33</v>
+      </c>
+      <c r="U53" t="n">
         <v>8</v>
-      </c>
-      <c r="U53" t="n">
-        <v>2</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -4612,11 +4724,13 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>10909</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10909</t>
+        </is>
       </c>
       <c r="B54" t="n">
-        <v>26157</v>
+        <v>25961.5</v>
       </c>
       <c r="C54" t="n">
         <v>3.7</v>
@@ -4651,7 +4765,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4660,26 +4774,26 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>55.9%</t>
+          <t>24.4%</t>
         </is>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="S54" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="T54" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -4690,11 +4804,13 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>10910</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>10910</t>
+        </is>
       </c>
       <c r="B55" t="n">
-        <v>26620</v>
+        <v>26425.5</v>
       </c>
       <c r="C55" t="n">
         <v>3.7</v>
@@ -4725,42 +4841,42 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>80.9%</t>
+          <t>77.0%</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>8.1%</t>
         </is>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S55" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="T55" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="U55" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="b">
@@ -4768,11 +4884,13 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>10911</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>10911</t>
+        </is>
       </c>
       <c r="B56" t="n">
-        <v>26958</v>
+        <v>26757.5</v>
       </c>
       <c r="C56" t="n">
         <v>3.8</v>
@@ -4807,38 +4925,38 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>4.72</v>
+        <v>4.73</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>92.6%</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>90.4%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S56" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="T56" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="U56" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="b">
@@ -4846,11 +4964,13 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>10912</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10912</t>
+        </is>
       </c>
       <c r="B57" t="n">
-        <v>26964</v>
+        <v>26760.5</v>
       </c>
       <c r="C57" t="n">
         <v>3.9</v>
@@ -4885,7 +5005,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4894,29 +5014,29 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>91.2%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S57" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="T57" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="b">
@@ -4924,11 +5044,13 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>10913</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>10913</t>
+        </is>
       </c>
       <c r="B58" t="n">
-        <v>26347</v>
+        <v>26157.5</v>
       </c>
       <c r="C58" t="n">
         <v>3.5</v>
@@ -4959,39 +5081,39 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>63.2%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>93.4%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>9</v>
       </c>
       <c r="S58" t="n">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="T58" t="n">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5002,11 +5124,13 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>10914</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>10914</t>
+        </is>
       </c>
       <c r="B59" t="n">
-        <v>25830</v>
+        <v>25631.5</v>
       </c>
       <c r="C59" t="n">
         <v>3.8</v>
@@ -5045,34 +5169,34 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>97.8%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
         <v>3</v>
       </c>
-      <c r="R59" t="n">
-        <v>7</v>
-      </c>
       <c r="S59" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="T59" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="U59" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="b">
@@ -5080,11 +5204,13 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>10915</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10915</t>
+        </is>
       </c>
       <c r="B60" t="n">
-        <v>26584</v>
+        <v>26381.5</v>
       </c>
       <c r="C60" t="n">
         <v>3.5</v>
@@ -5115,42 +5241,42 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>49.3%</t>
+          <t>28.9%</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>80.9%</t>
+          <t>11.9%</t>
         </is>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
         <v>25</v>
       </c>
       <c r="S60" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="T60" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="b">
@@ -5158,11 +5284,13 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>15275</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>15275</t>
+        </is>
       </c>
       <c r="B61" t="n">
-        <v>27350</v>
+        <v>27153.5</v>
       </c>
       <c r="C61" t="n">
         <v>4</v>
@@ -5201,28 +5329,28 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>99.3%</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>26.5%</t>
+          <t>60.7%</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="R61" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="S61" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -5236,11 +5364,13 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>15278</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>15278</t>
+        </is>
       </c>
       <c r="B62" t="n">
-        <v>27814</v>
+        <v>27609.5</v>
       </c>
       <c r="C62" t="n">
         <v>4</v>
@@ -5261,7 +5391,7 @@
         <v>1.22</v>
       </c>
       <c r="I62" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="J62" t="n">
         <v>27</v>
@@ -5275,38 +5405,38 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>99.3%</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>71.3%</t>
+          <t>17.8%</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="R62" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S62" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="T62" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="U62" t="n">
         <v>3</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="b">
@@ -5314,11 +5444,13 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>15315</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>15315</t>
+        </is>
       </c>
       <c r="B63" t="n">
-        <v>27516</v>
+        <v>27310.5</v>
       </c>
       <c r="C63" t="n">
         <v>4.2</v>
@@ -5339,7 +5471,7 @@
         <v>1.19</v>
       </c>
       <c r="I63" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="J63" t="n">
         <v>25</v>
@@ -5357,31 +5489,31 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>99.3%</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>16.9%</t>
+          <t>71.1%</t>
         </is>
       </c>
       <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>40</v>
+      </c>
+      <c r="R63" t="n">
+        <v>72</v>
+      </c>
+      <c r="S63" t="n">
+        <v>13</v>
+      </c>
+      <c r="T63" t="n">
         <v>8</v>
       </c>
-      <c r="Q63" t="n">
-        <v>88</v>
-      </c>
-      <c r="R63" t="n">
-        <v>25</v>
-      </c>
-      <c r="S63" t="n">
-        <v>9</v>
-      </c>
-      <c r="T63" t="n">
+      <c r="U63" t="n">
         <v>1</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -5392,11 +5524,13 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>15335</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>15335</t>
+        </is>
       </c>
       <c r="B64" t="n">
-        <v>27016</v>
+        <v>26818.5</v>
       </c>
       <c r="C64" t="n">
         <v>4.4</v>
@@ -5435,28 +5569,28 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>92.6%</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>9.6%</t>
+          <t>80.7%</t>
         </is>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="R64" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="S64" t="n">
+        <v>12</v>
+      </c>
+      <c r="T64" t="n">
         <v>1</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -5470,11 +5604,13 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>15341</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>15341</t>
+        </is>
       </c>
       <c r="B65" t="n">
-        <v>28235</v>
+        <v>28024.5</v>
       </c>
       <c r="C65" t="n">
         <v>4.3</v>
@@ -5513,28 +5649,28 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>11.8%</t>
+          <t>74.1%</t>
         </is>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="R65" t="n">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="S65" t="n">
+        <v>14</v>
+      </c>
+      <c r="T65" t="n">
         <v>2</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -5548,11 +5684,13 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>15342</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>15342</t>
+        </is>
       </c>
       <c r="B66" t="n">
-        <v>27429</v>
+        <v>27221.5</v>
       </c>
       <c r="C66" t="n">
         <v>4.3</v>
@@ -5587,32 +5725,32 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>85.2%</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>9.6%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="R66" t="n">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="S66" t="n">
+        <v>12</v>
+      </c>
+      <c r="T66" t="n">
         <v>1</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -5626,11 +5764,13 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>15343</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>15343</t>
+        </is>
       </c>
       <c r="B67" t="n">
-        <v>28050</v>
+        <v>27848.5</v>
       </c>
       <c r="C67" t="n">
         <v>4.4</v>
@@ -5669,28 +5809,28 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>84.4%</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="R67" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="S67" t="n">
+        <v>7</v>
+      </c>
+      <c r="T67" t="n">
         <v>1</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -5704,11 +5844,13 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>15344</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>15344</t>
+        </is>
       </c>
       <c r="B68" t="n">
-        <v>27643</v>
+        <v>27433.5</v>
       </c>
       <c r="C68" t="n">
         <v>4.4</v>
@@ -5743,32 +5885,32 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>99.3%</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>86.7%</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="R68" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="n">
         <v>2</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -5782,11 +5924,13 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>6209</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>6209</t>
+        </is>
       </c>
       <c r="B69" t="n">
-        <v>27544</v>
+        <v>27336.5</v>
       </c>
       <c r="C69" t="n">
         <v>3.8</v>
@@ -5821,38 +5965,38 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>73.5%</t>
+          <t>67.4%</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>81.6%</t>
+          <t>10.4%</t>
         </is>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
+        <v>22</v>
+      </c>
+      <c r="S69" t="n">
         <v>27</v>
       </c>
-      <c r="S69" t="n">
-        <v>53</v>
-      </c>
       <c r="T69" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="U69" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="b">
@@ -5860,11 +6004,13 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>6360</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>6360</t>
+        </is>
       </c>
       <c r="B70" t="n">
-        <v>27084</v>
+        <v>26878.5</v>
       </c>
       <c r="C70" t="n">
         <v>3.8</v>
@@ -5903,34 +6049,34 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>95.6%</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>94.9%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="P70" t="n">
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S70" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="T70" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="U70" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="b">
